--- a/varios/Implementacion_facebook.xlsx
+++ b/varios/Implementacion_facebook.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="4095"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="4095" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Objetivos" sheetId="2" r:id="rId1"/>
+    <sheet name="Hoja1" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
   <si>
     <t>Crear página Facebook</t>
   </si>
@@ -48,15 +49,82 @@
   </si>
   <si>
     <t>solicitar a contactos Facebook "me gusta" pagina karminna Facebook</t>
+  </si>
+  <si>
+    <t>Conseguir fans</t>
+  </si>
+  <si>
+    <t>Incluye la caja de Fans en tu sitio web y/o blog</t>
+  </si>
+  <si>
+    <t>Crea una Landing Page con iFrames</t>
+  </si>
+  <si>
+    <t>descripcion -------&gt;&gt;&gt;&gt;&gt;</t>
+  </si>
+  <si>
+    <t>Cada vez que algún visitante llegue a tu página ya sea por publicidad (Facebook Ads) o porque lo conocieron por la viralidad de la red social, debe aterrizar en una Landing Page que llame a la acciónde hacerse fan para conseguir un regalo,  un libro, un vídeo, un podcast, un mini-curso, etcétera.</t>
+  </si>
+  <si>
+    <t>Integra los comentarios de Facebook en tu sitio web o blog</t>
+  </si>
+  <si>
+    <t>Muestra tu página fuera de Facebook</t>
+  </si>
+  <si>
+    <t>¿Que quiero decir con esto? Pues que pongas tu enlace a tu pagina de facebook (http://www.facebook.com/conseguir15000fans) en la firma de tu correos, en tus tarjetas de presentación, en tu papeleria, en tu coche, en tu negocio, si es posible hasta en tu casa. Este refuerzo te ayudará también a promocionar tu pagina fuera de facebook y en el mundo offline.</t>
+  </si>
+  <si>
+    <t>Dar a conocer lo nuevo</t>
+  </si>
+  <si>
+    <t>Recordar a clientes Karminna</t>
+  </si>
+  <si>
+    <t>Llegar a potenciales clientes</t>
+  </si>
+  <si>
+    <t>Promo dia de la madre</t>
+  </si>
+  <si>
+    <t>Promo dia del niño</t>
+  </si>
+  <si>
+    <t>Liquidaciones</t>
+  </si>
+  <si>
+    <t>Outlet?</t>
+  </si>
+  <si>
+    <t>Cupones de descuento</t>
+  </si>
+  <si>
+    <t>e-mail marketing clientas con link página facebook</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -83,8 +151,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -365,15 +435,73 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:A8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="41.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="62.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -414,7 +542,60 @@
         <v>6</v>
       </c>
     </row>
+    <row r="14" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B21" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/varios/Implementacion_facebook.xlsx
+++ b/varios/Implementacion_facebook.xlsx
@@ -14,6 +14,8 @@
   <sheets>
     <sheet name="Objetivos" sheetId="2" r:id="rId1"/>
     <sheet name="Hoja1" sheetId="1" r:id="rId2"/>
+    <sheet name="Promocion" sheetId="3" r:id="rId3"/>
+    <sheet name="Notificar Lo nuevo" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="43">
   <si>
     <t>Crear página Facebook</t>
   </si>
@@ -100,6 +102,60 @@
   </si>
   <si>
     <t>e-mail marketing clientas con link página facebook</t>
+  </si>
+  <si>
+    <t>post -&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Link </t>
+  </si>
+  <si>
+    <t>Comentario</t>
+  </si>
+  <si>
+    <t>Fotos</t>
+  </si>
+  <si>
+    <t>etc</t>
+  </si>
+  <si>
+    <t>enviar notificacion</t>
+  </si>
+  <si>
+    <t>compartir enlace</t>
+  </si>
+  <si>
+    <t>enviar mensaje</t>
+  </si>
+  <si>
+    <t>invitar amigos</t>
+  </si>
+  <si>
+    <t>Compartir enlace</t>
+  </si>
+  <si>
+    <t>Compartir promocion -&gt;</t>
+  </si>
+  <si>
+    <t>es escribir en el muro del usuario</t>
+  </si>
+  <si>
+    <t>Invita a tus amigos</t>
+  </si>
+  <si>
+    <t>Enviar mensaje</t>
+  </si>
+  <si>
+    <t>Promo para ganar fans</t>
+  </si>
+  <si>
+    <t>ver ejemplo</t>
+  </si>
+  <si>
+    <t>http://ejemplos.app.telemw.com/pag-04</t>
+  </si>
+  <si>
+    <t>mandar correo</t>
   </si>
 </sst>
 </file>
@@ -496,7 +552,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -598,4 +654,122 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A25" sqref="A25:B33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/varios/Implementacion_facebook.xlsx
+++ b/varios/Implementacion_facebook.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="4095" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="4095" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Objetivos" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="41">
   <si>
     <t>Crear página Facebook</t>
   </si>
@@ -119,18 +119,6 @@
     <t>etc</t>
   </si>
   <si>
-    <t>enviar notificacion</t>
-  </si>
-  <si>
-    <t>compartir enlace</t>
-  </si>
-  <si>
-    <t>enviar mensaje</t>
-  </si>
-  <si>
-    <t>invitar amigos</t>
-  </si>
-  <si>
     <t>Compartir enlace</t>
   </si>
   <si>
@@ -156,6 +144,12 @@
   </si>
   <si>
     <t>mandar correo</t>
+  </si>
+  <si>
+    <t>Se comparte en mi muro, y si hago click en compartir( en mi muro) se comparte en seccion noticias)</t>
+  </si>
+  <si>
+    <t>enviar notificacion o mensaje</t>
   </si>
 </sst>
 </file>
@@ -494,7 +488,7 @@
   <dimension ref="A1:A8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+      <selection activeCell="A3" sqref="A3:A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -551,7 +545,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
@@ -661,7 +655,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A25" sqref="A25:B33"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -672,38 +666,41 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>30</v>
+      </c>
+      <c r="B3" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B6" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -713,9 +710,9 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
@@ -723,7 +720,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -751,22 +748,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/varios/Implementacion_facebook.xlsx
+++ b/varios/Implementacion_facebook.xlsx
@@ -9,13 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="4095" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="4095" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Objetivos" sheetId="2" r:id="rId1"/>
     <sheet name="Hoja1" sheetId="1" r:id="rId2"/>
     <sheet name="Promocion" sheetId="3" r:id="rId3"/>
     <sheet name="Notificar Lo nuevo" sheetId="4" r:id="rId4"/>
+    <sheet name="Flow" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="54">
   <si>
     <t>Crear página Facebook</t>
   </si>
@@ -150,13 +151,52 @@
   </si>
   <si>
     <t>enviar notificacion o mensaje</t>
+  </si>
+  <si>
+    <t>Crear sorteo en Facebook en página facebook o app</t>
+  </si>
+  <si>
+    <t>Guardar los datos de los usuarios en db mysql</t>
+  </si>
+  <si>
+    <t>pagina cancel</t>
+  </si>
+  <si>
+    <t>pagina términos y condiciones</t>
+  </si>
+  <si>
+    <t>Leer términos promos de Facebook</t>
+  </si>
+  <si>
+    <t>filtrar permisos proporcionados por el usuario para saber si puede participar</t>
+  </si>
+  <si>
+    <t>Para incrementar la viralidad de tu App, puedes permitir que los participantes sumen chances de ganar si convencen a sus amigos que participen del concurso. Por cada amigo que participe a través de su recomendación, el participante sumará una chance más de ganar en el sorteo final.</t>
+  </si>
+  <si>
+    <t>*Aclaración: Sólo se sumarán chances a los usuarios cuando otro se registre a través del link de recomendación.</t>
+  </si>
+  <si>
+    <t>https://www.socialtools.me/blog/como-definir-mis-bases-y-condiciones-en-mis-apps/</t>
+  </si>
+  <si>
+    <t>https://www.socialtools.me/blog/sorteo-paso-a-paso-para-crear-un-sorteo-en-facebook/</t>
+  </si>
+  <si>
+    <t>duracion concurso</t>
+  </si>
+  <si>
+    <t>datos del participante (si no da permiso a los datos obligatorios no puede participar)</t>
+  </si>
+  <si>
+    <t>terminos y condiciones</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -175,6 +215,14 @@
     <font>
       <b/>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -201,10 +249,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -546,7 +595,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="C1" sqref="C1:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -554,55 +603,47 @@
     <col min="1" max="1" width="62.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>24</v>
       </c>
@@ -652,10 +693,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -703,6 +744,36 @@
         <v>37</v>
       </c>
     </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>53</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -712,7 +783,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
@@ -754,4 +825,60 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:A10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="47.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>